--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1293261.565743904</v>
+        <v>1289248.955729912</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.10522832</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>353.0612076227794</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.13659100914387</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60.95146857460883</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>52.03044600306222</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>81.2788737961841</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>106.0900968852907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>278.2405979811795</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>5.829022425353241</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.92604697627053</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>34.45703212904686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.89830436238735</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>31.26260713376658</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>102.1557845699818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977307</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>125.8152577453158</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>249.7682289193612</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>838.2120490344389</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>838.2120490344389</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3315.366840791853</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3315.366840791853</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3061.836364065689</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2730.773476722119</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2378.004821452004</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2004.539063190924</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686063</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106474</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080119</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.1078027362229</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1865.72740811414</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1865.72740811414</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1643.960792683667</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1354.85792580931</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1100.173437603423</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>810.7562675664626</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>810.7562675664626</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.7562675664626</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1284.706976592258</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3133.215280614868</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2802.152393271298</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.383738001183</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2075.917979740103</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>345.4862584440777</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3319.717920169421</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.187443443257</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.124556099686</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.355900829572</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.890142568492</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1903.126823870038</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1711.440939696864</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1489.67432426639</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1489.67432426639</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1234.989836060503</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1234.989836060503</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1007.000285162486</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1007.000285162486</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098246</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819177</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>664.302781469582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871889</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048583</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925226</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925226</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3007.624207651098</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2838.688024723192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2688.571385310856</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2540.658291728463</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2393.768344230552</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765733</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559846</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522885</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3410.065251624868</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3189.272672481338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,16 +7262,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2794.50775589162</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3969.040009006254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3714.355520800367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3424.938350763407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3196.948799865389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>2976.156220721859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>114.1584408891655</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.53565828418182</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>114.1584408891647</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>39.70888054695307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>36.41624546988291</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140035</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26340,16 +26340,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316941</v>
@@ -26524,46 +26524,46 @@
         <v>-1035627.579323585</v>
       </c>
       <c r="C6" t="n">
+        <v>293117.166404007</v>
+      </c>
+      <c r="D6" t="n">
         <v>293117.1664040072</v>
       </c>
-      <c r="D6" t="n">
-        <v>293117.1664040074</v>
-      </c>
       <c r="E6" t="n">
-        <v>45366.04800092321</v>
+        <v>45018.66874656648</v>
       </c>
       <c r="F6" t="n">
-        <v>370778.5098082782</v>
+        <v>370431.1305539211</v>
       </c>
       <c r="G6" t="n">
-        <v>370778.5098082781</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="H6" t="n">
-        <v>370778.5098082785</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="I6" t="n">
-        <v>370778.5098082783</v>
+        <v>370431.1305539214</v>
       </c>
       <c r="J6" t="n">
-        <v>153247.3074110009</v>
+        <v>152899.928156644</v>
       </c>
       <c r="K6" t="n">
-        <v>370778.5098082785</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="L6" t="n">
-        <v>370778.5098082782</v>
+        <v>370431.1305539214</v>
       </c>
       <c r="M6" t="n">
-        <v>285723.4818727669</v>
+        <v>285376.1026184097</v>
       </c>
       <c r="N6" t="n">
-        <v>370778.5098082784</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="O6" t="n">
-        <v>370778.5098082783</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="P6" t="n">
-        <v>370778.5098082782</v>
+        <v>370431.1305539213</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>53.81483811893202</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.05117077903196</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.9806840954385</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>329.8999240691996</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>169.7162981627179</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.4945564668041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>87.03229378982803</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>198.0889477142669</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>65.0061056937768</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202621</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>409.0029787211712</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,19 +33268,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9755796648395</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342406</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>266.8689447991529</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1289248.955729912</v>
+        <v>1291009.486032697</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.10522832</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.0612076227794</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>277.3609036565631</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>71.67037196991666</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>35.69861698824744</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>52.03044600306222</v>
+        <v>155.501198769347</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>95.39020434787065</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.83694765564225</v>
       </c>
       <c r="C8" t="n">
-        <v>278.2405979811795</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>130.025702498612</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>81.89830436238735</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>115.4764219077151</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>47.84205650382022</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4312,37 +4312,37 @@
         <v>1196.477747641189</v>
       </c>
       <c r="D2" t="n">
-        <v>838.2120490344389</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="E2" t="n">
-        <v>838.2120490344389</v>
+        <v>810.6894950429451</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>803.7439942937416</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>388.6715441387381</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738575</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>583.8261120459506</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336148</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512217</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9064315533114</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882605</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947627</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040972</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1642.972675199008</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D5" t="n">
-        <v>1284.706976592258</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2257.256030805452</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y8" t="n">
-        <v>2257.256030805452</v>
+        <v>1992.201838557434</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>664.8171257877607</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>495.8809428598538</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>345.764303447518</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>197.8512098651249</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>197.8512098651249</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>197.8512098651249</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1067.258169761531</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1067.258169761531</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>846.4655906180004</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143764</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>632.3401009508116</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.833967264824</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>210.4595134598054</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,16 +5533,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797186</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6068,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6779,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>64.53565828418182</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>24.81829093850877</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787413</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.06191857</v>
-      </c>
       <c r="E2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140038</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="H2" t="n">
-        <v>484287.9598140035</v>
-      </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1035627.579323585</v>
       </c>
       <c r="C6" t="n">
-        <v>293117.166404007</v>
+        <v>293117.1664040074</v>
       </c>
       <c r="D6" t="n">
-        <v>293117.1664040072</v>
+        <v>293117.1664040073</v>
       </c>
       <c r="E6" t="n">
-        <v>45018.66874656648</v>
+        <v>45331.31007548736</v>
       </c>
       <c r="F6" t="n">
-        <v>370431.1305539211</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="G6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828431</v>
       </c>
       <c r="H6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828428</v>
       </c>
       <c r="I6" t="n">
-        <v>370431.1305539214</v>
+        <v>370743.7718828427</v>
       </c>
       <c r="J6" t="n">
-        <v>152899.928156644</v>
+        <v>153212.5694855652</v>
       </c>
       <c r="K6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="L6" t="n">
-        <v>370431.1305539214</v>
+        <v>370743.7718828428</v>
       </c>
       <c r="M6" t="n">
-        <v>285376.1026184097</v>
+        <v>285688.7439473309</v>
       </c>
       <c r="N6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="O6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828427</v>
       </c>
       <c r="P6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828428</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81483811893202</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>17.24686073075736</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.35543628911157</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>182.8860363638474</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>329.8999240691996</v>
+        <v>226.4291713029148</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>84.44177583406665</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>366.8968940078383</v>
       </c>
       <c r="C8" t="n">
-        <v>87.03229378982803</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>14.72931241570873</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018702</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.9226811202621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981969</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,13 +32551,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>161.7871425275307</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,31 +33025,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>216.0947523943934</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33912,13 +33912,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.9409070342406</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183227</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36199,13 +36199,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>23.94570355317167</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>77.54037261451923</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
